--- a/python/DoseFinal_summary.xlsx
+++ b/python/DoseFinal_summary.xlsx
@@ -57,7 +57,7 @@
     <t>dₑ</t>
   </si>
   <si>
-    <t>δₑ</t>
+    <t>log10(δₑ)</t>
   </si>
   <si>
     <t>log10(K₍δₑ₎)</t>
@@ -93,7 +93,7 @@
     <t>(4.217, 8.815)</t>
   </si>
   <si>
-    <t>(0.935, 1.417)</t>
+    <t>(-0.029, 0.151)</t>
   </si>
   <si>
     <t>(2.003, 4.288)</t>
@@ -126,7 +126,7 @@
     <t>(0.028, 1.067)</t>
   </si>
   <si>
-    <t>(0.561, 1.052)</t>
+    <t>(-0.251, 0.022)</t>
   </si>
   <si>
     <t>(2.091, 3.379)</t>
@@ -159,7 +159,7 @@
     <t>(6.438, 10.0)</t>
   </si>
   <si>
-    <t>(2.024, 3.381)</t>
+    <t>(0.306, 0.529)</t>
   </si>
   <si>
     <t>(3.003, 4.908)</t>
@@ -192,7 +192,7 @@
     <t>(0.01, 2.663)</t>
   </si>
   <si>
-    <t>(0.158, 0.394)</t>
+    <t>(-0.801, -0.404)</t>
   </si>
   <si>
     <t>(2.003, 5.011)</t>
@@ -225,7 +225,7 @@
     <t>(3.468, 9.799)</t>
   </si>
   <si>
-    <t>(0.364, 0.706)</t>
+    <t>(-0.439, -0.151)</t>
   </si>
   <si>
     <t>(2.042, 3.262)</t>
@@ -258,7 +258,7 @@
     <t>(0.01, 0.035)</t>
   </si>
   <si>
-    <t>(0.01, 0.04)</t>
+    <t>(-2.0, -1.395)</t>
   </si>
   <si>
     <t>(3.422, 4.375)</t>
@@ -291,7 +291,7 @@
     <t>(0.044, 0.104)</t>
   </si>
   <si>
-    <t>(0.254, 0.326)</t>
+    <t>(-0.595, -0.487)</t>
   </si>
   <si>
     <t>(2.002, 4.053)</t>
@@ -324,7 +324,7 @@
     <t>(5.291, 9.996)</t>
   </si>
   <si>
-    <t>(0.232, 0.352)</t>
+    <t>(-0.635, -0.453)</t>
   </si>
   <si>
     <t>(2.004, 3.668)</t>
@@ -357,7 +357,7 @@
     <t>(0.972, 2.289)</t>
   </si>
   <si>
-    <t>(15.401, 26.762)</t>
+    <t>(1.188, 1.428)</t>
   </si>
   <si>
     <t>(2.331, 5.654)</t>
@@ -390,7 +390,7 @@
     <t>(0.013, 2.287)</t>
   </si>
   <si>
-    <t>(2.437, 7.754)</t>
+    <t>(0.387, 0.89)</t>
   </si>
   <si>
     <t>(2.116, 4.073)</t>
@@ -1561,34 +1561,34 @@
         <v>13</v>
       </c>
       <c r="C22">
-        <v>1.172</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="D22">
-        <v>0.643</v>
+        <v>-0.192</v>
       </c>
       <c r="E22">
-        <v>2.871</v>
+        <v>0.458</v>
       </c>
       <c r="F22">
-        <v>0.221</v>
+        <v>-0.656</v>
       </c>
       <c r="G22">
-        <v>0.456</v>
+        <v>-0.341</v>
       </c>
       <c r="H22">
-        <v>0.013</v>
+        <v>-1.887</v>
       </c>
       <c r="I22">
-        <v>0.278</v>
+        <v>-0.555</v>
       </c>
       <c r="J22">
-        <v>0.266</v>
+        <v>-0.574</v>
       </c>
       <c r="K22">
-        <v>19.237</v>
+        <v>1.284</v>
       </c>
       <c r="L22">
-        <v>5.531</v>
+        <v>0.743</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2070,72 +2070,72 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>0.514</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="C11">
-        <v>0.033</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D11">
-        <v>0.107</v>
+        <v>0.206</v>
       </c>
       <c r="E11">
-        <v>0.658</v>
+        <v>0.046</v>
       </c>
       <c r="F11">
-        <v>0.742</v>
+        <v>0.061</v>
       </c>
       <c r="G11">
-        <v>0.122</v>
+        <v>0.005</v>
       </c>
       <c r="H11">
-        <v>0.057</v>
+        <v>0.011</v>
       </c>
       <c r="I11">
-        <v>0.258</v>
+        <v>0.026</v>
       </c>
       <c r="J11">
-        <v>0.008</v>
+        <v>2.372</v>
       </c>
       <c r="K11">
-        <v>0.257</v>
+        <v>1.122</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>0.08699999999999999</v>
+        <v>0.514</v>
       </c>
       <c r="C12">
-        <v>0.07099999999999999</v>
+        <v>0.033</v>
       </c>
       <c r="D12">
-        <v>0.206</v>
+        <v>0.107</v>
       </c>
       <c r="E12">
-        <v>0.046</v>
+        <v>0.658</v>
       </c>
       <c r="F12">
-        <v>0.061</v>
+        <v>0.742</v>
       </c>
       <c r="G12">
-        <v>0.005</v>
+        <v>0.122</v>
       </c>
       <c r="H12">
-        <v>0.011</v>
+        <v>0.057</v>
       </c>
       <c r="I12">
-        <v>0.026</v>
+        <v>0.258</v>
       </c>
       <c r="J12">
-        <v>2.372</v>
+        <v>0.008</v>
       </c>
       <c r="K12">
-        <v>1.122</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2538,72 +2538,72 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>9.101861275781536E-09</v>
+        <v>0.002273053094527054</v>
       </c>
       <c r="C11">
-        <v>0.0002875608032945338</v>
+        <v>1.005503637169034E-14</v>
       </c>
       <c r="D11">
-        <v>0.003052654692894354</v>
+        <v>0.0001022862293332428</v>
       </c>
       <c r="E11">
-        <v>0.02737572675968664</v>
+        <v>9.792941025456125E-06</v>
       </c>
       <c r="F11">
-        <v>3.510616984274986E-09</v>
+        <v>1.797549197571361E-09</v>
       </c>
       <c r="G11">
-        <v>6.434522400081586E-11</v>
+        <v>5.356826805740021E-15</v>
       </c>
       <c r="H11">
-        <v>1.245390134352864E-08</v>
+        <v>1.529952307568641E-08</v>
       </c>
       <c r="I11">
-        <v>4.807056737946781E-07</v>
+        <v>2.208426855651564E-09</v>
       </c>
       <c r="J11">
-        <v>3.923017909714737E-06</v>
+        <v>2.641017405945723E-07</v>
       </c>
       <c r="K11">
-        <v>3.863813017868126E-10</v>
+        <v>4.214048337324177E-05</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>0.002273053094527054</v>
+        <v>9.101861275781536E-09</v>
       </c>
       <c r="C12">
-        <v>1.005503637169034E-14</v>
+        <v>0.0002875608032945338</v>
       </c>
       <c r="D12">
-        <v>0.0001022862293332428</v>
+        <v>0.003052654692894354</v>
       </c>
       <c r="E12">
-        <v>9.792941025456125E-06</v>
+        <v>0.02737572675968664</v>
       </c>
       <c r="F12">
-        <v>1.797549197571361E-09</v>
+        <v>3.510616984274986E-09</v>
       </c>
       <c r="G12">
-        <v>5.356826805740021E-15</v>
+        <v>6.434522400081586E-11</v>
       </c>
       <c r="H12">
-        <v>1.529952307568641E-08</v>
+        <v>1.245390134352864E-08</v>
       </c>
       <c r="I12">
-        <v>2.208426855651564E-09</v>
+        <v>4.807056737946781E-07</v>
       </c>
       <c r="J12">
-        <v>2.641017405945723E-07</v>
+        <v>3.923017909714737E-06</v>
       </c>
       <c r="K12">
-        <v>4.214048337324177E-05</v>
+        <v>3.863813017868126E-10</v>
       </c>
     </row>
     <row r="13" spans="1:11">
